--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\ModuleResp\Assets\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F96E44E-DEB8-453B-B23E-13A6B055A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228241-EF42-41D4-B0F1-398FD6BBEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>预制件ID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>SpawnType</t>
   </si>
   <si>
-    <t>ABName</t>
-  </si>
-  <si>
     <t>resPath</t>
   </si>
   <si>
@@ -58,17 +55,19 @@
     <t>int</t>
   </si>
   <si>
-    <t>子弹</t>
-  </si>
-  <si>
-    <t>prefab_obj#Bullet</t>
-  </si>
-  <si>
-    <t>AB包资源名称#分割</t>
+    <t>Prefabs/Test/Image_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/UI/Image</t>
+    <t>测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Test/Image_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -438,30 +437,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E9:E10"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.75" style="2"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="44.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.25" style="3" customWidth="1"/>
-    <col min="8" max="9" width="14.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" customWidth="1"/>
-    <col min="12" max="13" width="36.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.75" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="20.75" style="2"/>
+    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="3" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="11" width="36.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,24 +467,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="11"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -499,44 +493,36 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="11"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -544,95 +530,101 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228241-EF42-41D4-B0F1-398FD6BBEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF89E1-7677-430D-9ACD-ADA3E4FAD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>预制件ID</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Prefabs/Test/Image_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -503,7 +507,7 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -630,6 +634,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE228241-EF42-41D4-B0F1-398FD6BBEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950110F5-5DE8-4C35-B27D-AB4F3DEE0B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14632" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>预制件ID</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Prefabs/Test/Image_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -437,29 +441,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="2"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.25" style="3" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
-    <col min="10" max="11" width="36.375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="20.75" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="20.75" style="2"/>
+    <col min="1" max="1" width="20.73046875" style="2"/>
+    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.73046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,12 +478,11 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,14 +498,13 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -516,13 +517,12 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -537,13 +537,12 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -558,13 +557,12 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -575,61 +573,58 @@
         <v>10</v>
       </c>
       <c r="D6" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950110F5-5DE8-4C35-B27D-AB4F3DEE0B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7AFCC-9771-4748-B6D7-6203E4246BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14632" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28305" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,26 +443,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" style="2"/>
-    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.73046875" style="2"/>
+    <col min="1" max="1" width="20.75" style="2"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -502,7 +502,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -593,7 +593,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
@@ -604,22 +604,22 @@
       <c r="I8" s="9"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7AFCC-9771-4748-B6D7-6203E4246BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E67DD-39F4-43A5-8885-523DC5D26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28305" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28305" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\_BasePackage\Assets\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E67DD-39F4-43A5-8885-523DC5D26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7C482-255D-4944-9FBC-C9E55387C273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28305" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2415" windowWidth="28305" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,19 +59,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Test/Image_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +504,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>10</v>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9">
         <v>3</v>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7C482-255D-4944-9FBC-C9E55387C273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8A430-FB8A-4F3C-80CF-4EEB203026A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2415" windowWidth="28305" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2235" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8A430-FB8A-4F3C-80CF-4EEB203026A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B49314-F15D-46EB-BDBD-123558EDF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="2235" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B49314-F15D-46EB-BDBD-123558EDF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14943679-6A2C-42AE-BD74-ED43E19CA0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5250" yWindow="2235" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14943679-6A2C-42AE-BD74-ED43E19CA0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B8038-CEF8-4DD6-8A7C-A01CCF78C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2235" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15390" windowHeight="9653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>预制件ID</t>
   </si>
   <si>
-    <t>预制件所属分类</t>
-  </si>
-  <si>
     <t>Resource资源路径</t>
   </si>
   <si>
@@ -72,6 +69,10 @@
   </si>
   <si>
     <t>场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件所属分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -445,35 +446,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="2"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.75" style="2"/>
+    <col min="1" max="1" width="20.73046875" style="2"/>
+    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.73046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -482,18 +483,18 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -502,18 +503,18 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -522,15 +523,15 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -542,15 +543,15 @@
       <c r="I4" s="9"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -562,15 +563,15 @@
       <c r="I5" s="9"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -582,7 +583,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -593,7 +594,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
@@ -604,22 +605,22 @@
       <c r="I8" s="9"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B8038-CEF8-4DD6-8A7C-A01CCF78C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5B3F5-DD63-4F5F-B1E3-19A0F6F55A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15390" windowHeight="9653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,11 +68,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>预制件所属分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制件所属分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,29 +446,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" style="2"/>
-    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.73046875" style="2"/>
+    <col min="1" max="1" width="20.75" style="2"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -483,7 +483,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,7 +503,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -543,18 +543,18 @@
       <c r="I4" s="9"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -563,7 +563,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -583,7 +583,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -594,7 +594,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
@@ -605,22 +605,22 @@
       <c r="I8" s="9"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5B3F5-DD63-4F5F-B1E3-19A0F6F55A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF5A77-2ECC-4119-A418-BBF3E4976EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -167,6 +174,10 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,24 +457,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="2"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.75" style="2"/>
+    <col min="1" max="1" width="20.73046875" style="2"/>
+    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.73046875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +494,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,7 +514,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -516,14 +527,14 @@
       <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="8"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -536,14 +547,14 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="10"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="9"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -556,14 +567,14 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="9"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -576,14 +587,14 @@
       <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="9"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -594,7 +605,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
@@ -605,22 +616,22 @@
       <c r="I8" s="9"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF5A77-2ECC-4119-A418-BBF3E4976EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07EA53-921D-4083-99D4-76DF52F51765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
-    <t>预制件ID</t>
-  </si>
-  <si>
-    <t>Resource资源路径</t>
-  </si>
-  <si>
-    <t>初始数量</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -68,11 +59,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>预制件所属分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-预制件所属分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-Resource资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#-初始数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s-预制件ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -457,35 +460,35 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" style="2"/>
-    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.3984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.73046875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.73046875" style="2"/>
+    <col min="1" max="1" width="20.75" style="2"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
+    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -494,18 +497,18 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -514,18 +517,18 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="8"/>
@@ -534,15 +537,15 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -554,15 +557,15 @@
       <c r="I4" s="9"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -574,15 +577,15 @@
       <c r="I5" s="9"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -594,7 +597,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -605,7 +608,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
@@ -616,22 +619,22 @@
       <c r="I8" s="9"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07EA53-921D-4083-99D4-76DF52F51765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF706-638D-4ACA-8900-BAE855D32A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1170" windowWidth="20475" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,19 +63,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C-预制件所属分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S-Resource资源路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#-初始数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>s-预制件ID</t>
+    <t>预制件ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制件所属分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource资源路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -479,16 +479,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEF706-638D-4ACA-8900-BAE855D32A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C693D-7484-4D22-99CA-56A531C45556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1170" windowWidth="20475" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -177,10 +177,9 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,11 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -469,15 +468,15 @@
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="4" customWidth="1"/>
-    <col min="9" max="10" width="36.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="20.75" style="2"/>
+    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="4" customWidth="1"/>
+    <col min="8" max="9" width="36.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -492,12 +491,11 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,12 +510,11 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -527,17 +524,16 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -550,14 +546,13 @@
       <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="10"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -570,14 +565,13 @@
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -590,51 +584,48 @@
       <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
   </sheetData>

--- a/Assets/XLSX/SpawnConfig.xlsx
+++ b/Assets/XLSX/SpawnConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\BasePackage\Assets\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\Unity\BasePackage\Assets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C693D-7484-4D22-99CA-56A531C45556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB738F0-B5E2-46A0-8699-EAD07B847BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -43,23 +43,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>Prefabs/Test/Image_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Test/Image_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -459,7 +443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -478,16 +462,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -516,7 +500,7 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -534,18 +518,9 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -553,18 +528,9 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
@@ -572,18 +538,9 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
